--- a/data-raw/dataxl/D2025_11_28_0500.xlsx
+++ b/data-raw/dataxl/D2025_11_28_0500.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LandSlice\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\ditwahLandslide\data-raw\dataxl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFAAB7C8-19B6-4D66-B436-5BB1458081C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F5DC4CC-8351-46D8-B146-BB0BBA436974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{F240B6C9-A665-4B37-8472-D68A7AFFA1FD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{F240B6C9-A665-4B37-8472-D68A7AFFA1FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -569,7 +569,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -579,6 +579,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -895,8 +896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D545D447-65DB-4B9E-B1D6-AD85DDBB554F}">
   <dimension ref="A1:L123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -906,7 +907,7 @@
     <col min="3" max="3" width="13.42578125" style="8" customWidth="1"/>
     <col min="4" max="4" width="29.42578125" customWidth="1"/>
     <col min="5" max="5" width="23.140625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="6" max="6" width="19" style="9" customWidth="1"/>
     <col min="7" max="7" width="19" style="6" customWidth="1"/>
     <col min="8" max="8" width="16.42578125" customWidth="1"/>
     <col min="9" max="9" width="12.5703125" customWidth="1"/>
@@ -929,7 +930,7 @@
       <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="9" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="6" t="s">
@@ -967,7 +968,7 @@
       <c r="E2" s="6">
         <v>45989</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="9">
         <v>0.1875</v>
       </c>
       <c r="G2" s="6">
@@ -1002,7 +1003,7 @@
       <c r="E3" s="6">
         <v>45989</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="9">
         <v>0.1875</v>
       </c>
       <c r="G3" s="6">
@@ -1037,7 +1038,7 @@
       <c r="E4" s="6">
         <v>45989</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="9">
         <v>0.1875</v>
       </c>
       <c r="G4" s="6">
@@ -1072,7 +1073,7 @@
       <c r="E5" s="6">
         <v>45989</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="9">
         <v>0.1875</v>
       </c>
       <c r="G5" s="6">
@@ -1107,7 +1108,7 @@
       <c r="E6" s="6">
         <v>45989</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="9">
         <v>0.1875</v>
       </c>
       <c r="G6" s="6">
@@ -1142,7 +1143,7 @@
       <c r="E7" s="6">
         <v>45989</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="9">
         <v>0.1875</v>
       </c>
       <c r="G7" s="6">
@@ -1177,7 +1178,7 @@
       <c r="E8" s="6">
         <v>45989</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="9">
         <v>0.1875</v>
       </c>
       <c r="G8" s="6">
@@ -1212,7 +1213,7 @@
       <c r="E9" s="6">
         <v>45989</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="9">
         <v>0.1875</v>
       </c>
       <c r="G9" s="6">
@@ -1247,7 +1248,7 @@
       <c r="E10" s="6">
         <v>45989</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="9">
         <v>0.1875</v>
       </c>
       <c r="G10" s="6">
@@ -1282,7 +1283,7 @@
       <c r="E11" s="6">
         <v>45989</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="9">
         <v>0.1875</v>
       </c>
       <c r="G11" s="6">
@@ -1317,7 +1318,7 @@
       <c r="E12" s="6">
         <v>45989</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="9">
         <v>0.1875</v>
       </c>
       <c r="G12" s="6">
@@ -1352,7 +1353,7 @@
       <c r="E13" s="6">
         <v>45989</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="9">
         <v>0.1875</v>
       </c>
       <c r="G13" s="6">
@@ -1390,7 +1391,7 @@
       <c r="E14" s="6">
         <v>45989</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="9">
         <v>0.1875</v>
       </c>
       <c r="G14" s="6">
@@ -1425,7 +1426,7 @@
       <c r="E15" s="6">
         <v>45989</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="9">
         <v>0.1875</v>
       </c>
       <c r="G15" s="6">
@@ -1460,7 +1461,7 @@
       <c r="E16" s="6">
         <v>45989</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="9">
         <v>0.1875</v>
       </c>
       <c r="G16" s="6">
@@ -1495,7 +1496,7 @@
       <c r="E17" s="6">
         <v>45989</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="9">
         <v>0.1875</v>
       </c>
       <c r="G17" s="6">
@@ -1530,7 +1531,7 @@
       <c r="E18" s="6">
         <v>45989</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="9">
         <v>0.1875</v>
       </c>
       <c r="G18" s="6">
@@ -1565,7 +1566,7 @@
       <c r="E19" s="6">
         <v>45989</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="9">
         <v>0.1875</v>
       </c>
       <c r="G19" s="6">
@@ -1600,7 +1601,7 @@
       <c r="E20" s="6">
         <v>45989</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="9">
         <v>0.1875</v>
       </c>
       <c r="G20" s="6">
@@ -1635,7 +1636,7 @@
       <c r="E21" s="6">
         <v>45989</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="9">
         <v>0.1875</v>
       </c>
       <c r="G21" s="6">
@@ -1670,7 +1671,7 @@
       <c r="E22" s="6">
         <v>45989</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="9">
         <v>0.1875</v>
       </c>
       <c r="G22" s="6">
@@ -1705,7 +1706,7 @@
       <c r="E23" s="6">
         <v>45989</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="9">
         <v>0.1875</v>
       </c>
       <c r="G23" s="6">
@@ -1740,7 +1741,7 @@
       <c r="E24" s="6">
         <v>45989</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="9">
         <v>0.1875</v>
       </c>
       <c r="G24" s="6">
@@ -1775,7 +1776,7 @@
       <c r="E25" s="6">
         <v>45989</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="9">
         <v>0.1875</v>
       </c>
       <c r="G25" s="6">
@@ -1810,7 +1811,7 @@
       <c r="E26" s="6">
         <v>45989</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="9">
         <v>0.1875</v>
       </c>
       <c r="G26" s="6">
@@ -1845,7 +1846,7 @@
       <c r="E27" s="6">
         <v>45989</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="9">
         <v>0.1875</v>
       </c>
       <c r="G27" s="6">
@@ -1880,7 +1881,7 @@
       <c r="E28" s="6">
         <v>45989</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="9">
         <v>0.1875</v>
       </c>
       <c r="G28" s="6">
@@ -1915,7 +1916,7 @@
       <c r="E29" s="6">
         <v>45989</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="9">
         <v>0.1875</v>
       </c>
       <c r="G29" s="6">
@@ -1950,7 +1951,7 @@
       <c r="E30" s="6">
         <v>45989</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="9">
         <v>0.1875</v>
       </c>
       <c r="G30" s="6">
@@ -1985,7 +1986,7 @@
       <c r="E31" s="6">
         <v>45989</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="9">
         <v>0.1875</v>
       </c>
       <c r="G31" s="6">
@@ -2020,7 +2021,7 @@
       <c r="E32" s="6">
         <v>45989</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="9">
         <v>0.1875</v>
       </c>
       <c r="G32" s="6">
@@ -2055,7 +2056,7 @@
       <c r="E33" s="6">
         <v>45989</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="9">
         <v>0.1875</v>
       </c>
       <c r="G33" s="6">
@@ -2090,7 +2091,7 @@
       <c r="E34" s="6">
         <v>45989</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="9">
         <v>0.1875</v>
       </c>
       <c r="G34" s="6">
@@ -2125,7 +2126,7 @@
       <c r="E35" s="6">
         <v>45989</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="9">
         <v>0.1875</v>
       </c>
       <c r="G35" s="6">
@@ -2160,7 +2161,7 @@
       <c r="E36" s="6">
         <v>45989</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36" s="9">
         <v>0.1875</v>
       </c>
       <c r="G36" s="6">
@@ -2195,7 +2196,7 @@
       <c r="E37" s="6">
         <v>45989</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F37" s="9">
         <v>0.1875</v>
       </c>
       <c r="G37" s="6">
@@ -2230,7 +2231,7 @@
       <c r="E38" s="6">
         <v>45989</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F38" s="9">
         <v>0.1875</v>
       </c>
       <c r="G38" s="6">
@@ -2265,7 +2266,7 @@
       <c r="E39" s="6">
         <v>45989</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F39" s="9">
         <v>0.1875</v>
       </c>
       <c r="G39" s="6">
@@ -2300,7 +2301,7 @@
       <c r="E40" s="6">
         <v>45989</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F40" s="9">
         <v>0.1875</v>
       </c>
       <c r="G40" s="6">
@@ -2335,7 +2336,7 @@
       <c r="E41" s="6">
         <v>45989</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F41" s="9">
         <v>0.1875</v>
       </c>
       <c r="G41" s="6">
@@ -2370,7 +2371,7 @@
       <c r="E42" s="6">
         <v>45989</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="9">
         <v>0.1875</v>
       </c>
       <c r="G42" s="6">
@@ -2405,7 +2406,7 @@
       <c r="E43" s="6">
         <v>45989</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43" s="9">
         <v>0.1875</v>
       </c>
       <c r="G43" s="6">
@@ -2440,7 +2441,7 @@
       <c r="E44" s="6">
         <v>45989</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44" s="9">
         <v>0.1875</v>
       </c>
       <c r="G44" s="6">
@@ -2475,7 +2476,7 @@
       <c r="E45" s="6">
         <v>45989</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F45" s="9">
         <v>0.1875</v>
       </c>
       <c r="G45" s="6">
@@ -2510,7 +2511,7 @@
       <c r="E46" s="6">
         <v>45989</v>
       </c>
-      <c r="F46" s="3">
+      <c r="F46" s="9">
         <v>0.1875</v>
       </c>
       <c r="G46" s="6">
@@ -2545,7 +2546,7 @@
       <c r="E47" s="6">
         <v>45989</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="9">
         <v>0.1875</v>
       </c>
       <c r="G47" s="6">
@@ -2580,7 +2581,7 @@
       <c r="E48" s="6">
         <v>45989</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F48" s="9">
         <v>0.1875</v>
       </c>
       <c r="G48" s="6">
@@ -2615,7 +2616,7 @@
       <c r="E49" s="6">
         <v>45989</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F49" s="9">
         <v>0.1875</v>
       </c>
       <c r="G49" s="6">
@@ -2650,7 +2651,7 @@
       <c r="E50" s="6">
         <v>45989</v>
       </c>
-      <c r="F50" s="3">
+      <c r="F50" s="9">
         <v>0.1875</v>
       </c>
       <c r="G50" s="6">
@@ -2685,7 +2686,7 @@
       <c r="E51" s="6">
         <v>45989</v>
       </c>
-      <c r="F51" s="3">
+      <c r="F51" s="9">
         <v>0.1875</v>
       </c>
       <c r="G51" s="6">
@@ -2720,7 +2721,7 @@
       <c r="E52" s="6">
         <v>45989</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F52" s="9">
         <v>0.1875</v>
       </c>
       <c r="G52" s="6">
@@ -2755,7 +2756,7 @@
       <c r="E53" s="6">
         <v>45989</v>
       </c>
-      <c r="F53" s="3">
+      <c r="F53" s="9">
         <v>0.1875</v>
       </c>
       <c r="G53" s="6">
@@ -2790,7 +2791,7 @@
       <c r="E54" s="6">
         <v>45989</v>
       </c>
-      <c r="F54" s="3">
+      <c r="F54" s="9">
         <v>0.1875</v>
       </c>
       <c r="G54" s="6">
@@ -2828,7 +2829,7 @@
       <c r="E55" s="6">
         <v>45989</v>
       </c>
-      <c r="F55" s="3">
+      <c r="F55" s="9">
         <v>0.1875</v>
       </c>
       <c r="G55" s="6">
@@ -2866,7 +2867,7 @@
       <c r="E56" s="6">
         <v>45989</v>
       </c>
-      <c r="F56" s="3">
+      <c r="F56" s="9">
         <v>0.1875</v>
       </c>
       <c r="G56" s="6">
@@ -2901,7 +2902,7 @@
       <c r="E57" s="6">
         <v>45989</v>
       </c>
-      <c r="F57" s="3">
+      <c r="F57" s="9">
         <v>0.1875</v>
       </c>
       <c r="G57" s="6">
@@ -2939,7 +2940,7 @@
       <c r="E58" s="6">
         <v>45989</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58" s="9">
         <v>0.1875</v>
       </c>
       <c r="G58" s="6">
@@ -2974,7 +2975,7 @@
       <c r="E59" s="6">
         <v>45989</v>
       </c>
-      <c r="F59" s="3">
+      <c r="F59" s="9">
         <v>0.1875</v>
       </c>
       <c r="G59" s="6">
@@ -3009,7 +3010,7 @@
       <c r="E60" s="6">
         <v>45989</v>
       </c>
-      <c r="F60" s="3">
+      <c r="F60" s="9">
         <v>0.1875</v>
       </c>
       <c r="G60" s="6">
@@ -3044,7 +3045,7 @@
       <c r="E61" s="6">
         <v>45989</v>
       </c>
-      <c r="F61" s="3">
+      <c r="F61" s="9">
         <v>0.1875</v>
       </c>
       <c r="G61" s="6">
@@ -3079,7 +3080,7 @@
       <c r="E62" s="6">
         <v>45989</v>
       </c>
-      <c r="F62" s="3">
+      <c r="F62" s="9">
         <v>0.1875</v>
       </c>
       <c r="G62" s="6">
@@ -3114,7 +3115,7 @@
       <c r="E63" s="6">
         <v>45989</v>
       </c>
-      <c r="F63" s="3">
+      <c r="F63" s="9">
         <v>0.1875</v>
       </c>
       <c r="G63" s="6">
@@ -3149,7 +3150,7 @@
       <c r="E64" s="6">
         <v>45989</v>
       </c>
-      <c r="F64" s="3">
+      <c r="F64" s="9">
         <v>0.1875</v>
       </c>
       <c r="G64" s="6">
@@ -3184,7 +3185,7 @@
       <c r="E65" s="6">
         <v>45989</v>
       </c>
-      <c r="F65" s="3">
+      <c r="F65" s="9">
         <v>0.1875</v>
       </c>
       <c r="G65" s="6">
@@ -3219,7 +3220,7 @@
       <c r="E66" s="6">
         <v>45989</v>
       </c>
-      <c r="F66" s="3">
+      <c r="F66" s="9">
         <v>0.1875</v>
       </c>
       <c r="G66" s="6">
@@ -3254,7 +3255,7 @@
       <c r="E67" s="6">
         <v>45989</v>
       </c>
-      <c r="F67" s="3">
+      <c r="F67" s="9">
         <v>0.1875</v>
       </c>
       <c r="G67" s="6">
@@ -3289,7 +3290,7 @@
       <c r="E68" s="6">
         <v>45989</v>
       </c>
-      <c r="F68" s="3">
+      <c r="F68" s="9">
         <v>0.1875</v>
       </c>
       <c r="G68" s="6">
@@ -3324,7 +3325,7 @@
       <c r="E69" s="6">
         <v>45989</v>
       </c>
-      <c r="F69" s="3">
+      <c r="F69" s="9">
         <v>0.1875</v>
       </c>
       <c r="G69" s="6">
@@ -3359,7 +3360,7 @@
       <c r="E70" s="6">
         <v>45989</v>
       </c>
-      <c r="F70" s="3">
+      <c r="F70" s="9">
         <v>0.1875</v>
       </c>
       <c r="G70" s="6">
@@ -3394,7 +3395,7 @@
       <c r="E71" s="6">
         <v>45989</v>
       </c>
-      <c r="F71" s="3">
+      <c r="F71" s="9">
         <v>0.1875</v>
       </c>
       <c r="G71" s="6">
@@ -3429,7 +3430,7 @@
       <c r="E72" s="6">
         <v>45989</v>
       </c>
-      <c r="F72" s="3">
+      <c r="F72" s="9">
         <v>0.1875</v>
       </c>
       <c r="G72" s="6">
@@ -3464,7 +3465,7 @@
       <c r="E73" s="6">
         <v>45989</v>
       </c>
-      <c r="F73" s="3">
+      <c r="F73" s="9">
         <v>0.1875</v>
       </c>
       <c r="G73" s="6">
@@ -3499,7 +3500,7 @@
       <c r="E74" s="6">
         <v>45989</v>
       </c>
-      <c r="F74" s="3">
+      <c r="F74" s="9">
         <v>0.1875</v>
       </c>
       <c r="G74" s="6">
@@ -3534,7 +3535,7 @@
       <c r="E75" s="6">
         <v>45989</v>
       </c>
-      <c r="F75" s="3">
+      <c r="F75" s="9">
         <v>0.1875</v>
       </c>
       <c r="G75" s="6">
@@ -3569,7 +3570,7 @@
       <c r="E76" s="6">
         <v>45989</v>
       </c>
-      <c r="F76" s="3">
+      <c r="F76" s="9">
         <v>0.1875</v>
       </c>
       <c r="G76" s="6">
@@ -3604,7 +3605,7 @@
       <c r="E77" s="6">
         <v>45989</v>
       </c>
-      <c r="F77" s="3">
+      <c r="F77" s="9">
         <v>0.1875</v>
       </c>
       <c r="G77" s="6">
@@ -3639,7 +3640,7 @@
       <c r="E78" s="6">
         <v>45989</v>
       </c>
-      <c r="F78" s="3">
+      <c r="F78" s="9">
         <v>0.1875</v>
       </c>
       <c r="G78" s="6">
@@ -3674,7 +3675,7 @@
       <c r="E79" s="6">
         <v>45989</v>
       </c>
-      <c r="F79" s="3">
+      <c r="F79" s="9">
         <v>0.1875</v>
       </c>
       <c r="G79" s="6">
@@ -3709,7 +3710,7 @@
       <c r="E80" s="6">
         <v>45989</v>
       </c>
-      <c r="F80" s="3">
+      <c r="F80" s="9">
         <v>0.1875</v>
       </c>
       <c r="G80" s="6">
@@ -3744,7 +3745,7 @@
       <c r="E81" s="6">
         <v>45989</v>
       </c>
-      <c r="F81" s="3">
+      <c r="F81" s="9">
         <v>0.1875</v>
       </c>
       <c r="G81" s="6">
@@ -3779,7 +3780,7 @@
       <c r="E82" s="6">
         <v>45989</v>
       </c>
-      <c r="F82" s="3">
+      <c r="F82" s="9">
         <v>0.1875</v>
       </c>
       <c r="G82" s="6">
@@ -3814,7 +3815,7 @@
       <c r="E83" s="6">
         <v>45989</v>
       </c>
-      <c r="F83" s="3">
+      <c r="F83" s="9">
         <v>0.1875</v>
       </c>
       <c r="G83" s="6">
@@ -3849,7 +3850,7 @@
       <c r="E84" s="6">
         <v>45989</v>
       </c>
-      <c r="F84" s="3">
+      <c r="F84" s="9">
         <v>0.1875</v>
       </c>
       <c r="G84" s="6">
@@ -3884,7 +3885,7 @@
       <c r="E85" s="6">
         <v>45989</v>
       </c>
-      <c r="F85" s="3">
+      <c r="F85" s="9">
         <v>0.1875</v>
       </c>
       <c r="G85" s="6">
@@ -3919,7 +3920,7 @@
       <c r="E86" s="6">
         <v>45989</v>
       </c>
-      <c r="F86" s="3">
+      <c r="F86" s="9">
         <v>0.1875</v>
       </c>
       <c r="G86" s="6">
@@ -3954,7 +3955,7 @@
       <c r="E87" s="6">
         <v>45989</v>
       </c>
-      <c r="F87" s="3">
+      <c r="F87" s="9">
         <v>0.1875</v>
       </c>
       <c r="G87" s="6">
@@ -3989,7 +3990,7 @@
       <c r="E88" s="6">
         <v>45989</v>
       </c>
-      <c r="F88" s="3">
+      <c r="F88" s="9">
         <v>0.1875</v>
       </c>
       <c r="G88" s="6">
@@ -4024,7 +4025,7 @@
       <c r="E89" s="6">
         <v>45989</v>
       </c>
-      <c r="F89" s="3">
+      <c r="F89" s="9">
         <v>0.1875</v>
       </c>
       <c r="G89" s="6">
@@ -4059,7 +4060,7 @@
       <c r="E90" s="6">
         <v>45989</v>
       </c>
-      <c r="F90" s="3">
+      <c r="F90" s="9">
         <v>0.1875</v>
       </c>
       <c r="G90" s="6">
@@ -4094,7 +4095,7 @@
       <c r="E91" s="6">
         <v>45989</v>
       </c>
-      <c r="F91" s="3">
+      <c r="F91" s="9">
         <v>0.1875</v>
       </c>
       <c r="G91" s="6">
@@ -4129,7 +4130,7 @@
       <c r="E92" s="6">
         <v>45989</v>
       </c>
-      <c r="F92" s="3">
+      <c r="F92" s="9">
         <v>0.1875</v>
       </c>
       <c r="G92" s="6">
@@ -4164,7 +4165,7 @@
       <c r="E93" s="6">
         <v>45989</v>
       </c>
-      <c r="F93" s="3">
+      <c r="F93" s="9">
         <v>0.1875</v>
       </c>
       <c r="G93" s="6">
@@ -4199,7 +4200,7 @@
       <c r="E94" s="6">
         <v>45989</v>
       </c>
-      <c r="F94" s="3">
+      <c r="F94" s="9">
         <v>0.1875</v>
       </c>
       <c r="G94" s="6">
@@ -4234,7 +4235,7 @@
       <c r="E95" s="6">
         <v>45989</v>
       </c>
-      <c r="F95" s="3">
+      <c r="F95" s="9">
         <v>0.1875</v>
       </c>
       <c r="G95" s="6">
@@ -4269,7 +4270,7 @@
       <c r="E96" s="6">
         <v>45989</v>
       </c>
-      <c r="F96" s="3">
+      <c r="F96" s="9">
         <v>0.1875</v>
       </c>
       <c r="G96" s="6">
@@ -4304,7 +4305,7 @@
       <c r="E97" s="6">
         <v>45989</v>
       </c>
-      <c r="F97" s="3">
+      <c r="F97" s="9">
         <v>0.1875</v>
       </c>
       <c r="G97" s="6">
@@ -4339,7 +4340,7 @@
       <c r="E98" s="6">
         <v>45989</v>
       </c>
-      <c r="F98" s="3">
+      <c r="F98" s="9">
         <v>0.1875</v>
       </c>
       <c r="G98" s="6">
@@ -4374,7 +4375,7 @@
       <c r="E99" s="6">
         <v>45989</v>
       </c>
-      <c r="F99" s="3">
+      <c r="F99" s="9">
         <v>0.1875</v>
       </c>
       <c r="G99" s="6">
@@ -4409,7 +4410,7 @@
       <c r="E100" s="6">
         <v>45989</v>
       </c>
-      <c r="F100" s="3">
+      <c r="F100" s="9">
         <v>0.1875</v>
       </c>
       <c r="G100" s="6">
@@ -4444,7 +4445,7 @@
       <c r="E101" s="6">
         <v>45989</v>
       </c>
-      <c r="F101" s="3">
+      <c r="F101" s="9">
         <v>0.1875</v>
       </c>
       <c r="G101" s="6">
@@ -4479,7 +4480,7 @@
       <c r="E102" s="6">
         <v>45989</v>
       </c>
-      <c r="F102" s="3">
+      <c r="F102" s="9">
         <v>0.1875</v>
       </c>
       <c r="G102" s="6">
@@ -4514,7 +4515,7 @@
       <c r="E103" s="6">
         <v>45989</v>
       </c>
-      <c r="F103" s="3">
+      <c r="F103" s="9">
         <v>0.1875</v>
       </c>
       <c r="G103" s="6">
@@ -4549,7 +4550,7 @@
       <c r="E104" s="6">
         <v>45989</v>
       </c>
-      <c r="F104" s="3">
+      <c r="F104" s="9">
         <v>0.1875</v>
       </c>
       <c r="G104" s="6">
@@ -4584,7 +4585,7 @@
       <c r="E105" s="6">
         <v>45989</v>
       </c>
-      <c r="F105" s="3">
+      <c r="F105" s="9">
         <v>0.1875</v>
       </c>
       <c r="G105" s="6">
@@ -4619,7 +4620,7 @@
       <c r="E106" s="6">
         <v>45989</v>
       </c>
-      <c r="F106" s="3">
+      <c r="F106" s="9">
         <v>0.1875</v>
       </c>
       <c r="G106" s="6">
@@ -4654,7 +4655,7 @@
       <c r="E107" s="6">
         <v>45989</v>
       </c>
-      <c r="F107" s="3">
+      <c r="F107" s="9">
         <v>0.1875</v>
       </c>
       <c r="G107" s="6">
@@ -4689,7 +4690,7 @@
       <c r="E108" s="6">
         <v>45989</v>
       </c>
-      <c r="F108" s="3">
+      <c r="F108" s="9">
         <v>0.1875</v>
       </c>
       <c r="G108" s="6">
@@ -4724,7 +4725,7 @@
       <c r="E109" s="6">
         <v>45989</v>
       </c>
-      <c r="F109" s="3">
+      <c r="F109" s="9">
         <v>0.1875</v>
       </c>
       <c r="G109" s="6">
@@ -4759,7 +4760,7 @@
       <c r="E110" s="6">
         <v>45989</v>
       </c>
-      <c r="F110" s="3">
+      <c r="F110" s="9">
         <v>0.1875</v>
       </c>
       <c r="G110" s="6">
@@ -4794,7 +4795,7 @@
       <c r="E111" s="6">
         <v>45989</v>
       </c>
-      <c r="F111" s="3">
+      <c r="F111" s="9">
         <v>0.1875</v>
       </c>
       <c r="G111" s="6">
@@ -4829,7 +4830,7 @@
       <c r="E112" s="6">
         <v>45989</v>
       </c>
-      <c r="F112" s="3">
+      <c r="F112" s="9">
         <v>0.1875</v>
       </c>
       <c r="G112" s="6">
@@ -4864,7 +4865,7 @@
       <c r="E113" s="6">
         <v>45989</v>
       </c>
-      <c r="F113" s="3">
+      <c r="F113" s="9">
         <v>0.1875</v>
       </c>
       <c r="G113" s="6">
@@ -4899,7 +4900,7 @@
       <c r="E114" s="6">
         <v>45989</v>
       </c>
-      <c r="F114" s="3">
+      <c r="F114" s="9">
         <v>0.1875</v>
       </c>
       <c r="G114" s="6">
@@ -4934,7 +4935,7 @@
       <c r="E115" s="6">
         <v>45989</v>
       </c>
-      <c r="F115" s="3">
+      <c r="F115" s="9">
         <v>0.1875</v>
       </c>
       <c r="G115" s="6">
@@ -4969,7 +4970,7 @@
       <c r="E116" s="6">
         <v>45989</v>
       </c>
-      <c r="F116" s="3">
+      <c r="F116" s="9">
         <v>0.1875</v>
       </c>
       <c r="G116" s="6">
@@ -5004,7 +5005,7 @@
       <c r="E117" s="6">
         <v>45989</v>
       </c>
-      <c r="F117" s="3">
+      <c r="F117" s="9">
         <v>0.1875</v>
       </c>
       <c r="G117" s="6">
@@ -5039,7 +5040,7 @@
       <c r="E118" s="6">
         <v>45989</v>
       </c>
-      <c r="F118" s="3">
+      <c r="F118" s="9">
         <v>0.1875</v>
       </c>
       <c r="G118" s="6">
@@ -5074,7 +5075,7 @@
       <c r="E119" s="6">
         <v>45989</v>
       </c>
-      <c r="F119" s="3">
+      <c r="F119" s="9">
         <v>0.1875</v>
       </c>
       <c r="G119" s="6">
@@ -5109,7 +5110,7 @@
       <c r="E120" s="6">
         <v>45989</v>
       </c>
-      <c r="F120" s="3">
+      <c r="F120" s="9">
         <v>0.1875</v>
       </c>
       <c r="G120" s="6">
@@ -5144,7 +5145,7 @@
       <c r="E121" s="6">
         <v>45989</v>
       </c>
-      <c r="F121" s="3">
+      <c r="F121" s="9">
         <v>0.1875</v>
       </c>
       <c r="G121" s="6">
@@ -5182,7 +5183,7 @@
       <c r="E122" s="6">
         <v>45989</v>
       </c>
-      <c r="F122" s="3">
+      <c r="F122" s="9">
         <v>0.1875</v>
       </c>
       <c r="G122" s="6">
@@ -5217,7 +5218,7 @@
       <c r="E123" s="6">
         <v>45989</v>
       </c>
-      <c r="F123" s="3">
+      <c r="F123" s="9">
         <v>0.1875</v>
       </c>
       <c r="G123" s="6">
@@ -5238,6 +5239,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
